--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N2">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O2">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P2">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q2">
-        <v>555.113565219909</v>
+        <v>439.3638927579533</v>
       </c>
       <c r="R2">
-        <v>4996.02208697918</v>
+        <v>3954.27503482158</v>
       </c>
       <c r="S2">
-        <v>0.004747450335289285</v>
+        <v>0.004061950132657925</v>
       </c>
       <c r="T2">
-        <v>0.004747450335289286</v>
+        <v>0.004061950132657925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.482232</v>
       </c>
       <c r="O3">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P3">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q3">
-        <v>96.33475810674844</v>
+        <v>141.0735749371573</v>
       </c>
       <c r="R3">
-        <v>867.012822960736</v>
+        <v>1269.662174434416</v>
       </c>
       <c r="S3">
-        <v>0.0008238755244482586</v>
+        <v>0.001304235136013327</v>
       </c>
       <c r="T3">
-        <v>0.0008238755244482586</v>
+        <v>0.001304235136013327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N4">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O4">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P4">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q4">
-        <v>81.1539485530689</v>
+        <v>181.5340690988207</v>
       </c>
       <c r="R4">
-        <v>730.3855369776201</v>
+        <v>1633.806621889386</v>
       </c>
       <c r="S4">
-        <v>0.0006940459833938475</v>
+        <v>0.001678295254143957</v>
       </c>
       <c r="T4">
-        <v>0.0006940459833938475</v>
+        <v>0.001678295254143957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N5">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O5">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P5">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q5">
-        <v>639.8307784143725</v>
+        <v>1066.475801537235</v>
       </c>
       <c r="R5">
-        <v>5758.477005729352</v>
+        <v>9598.282213835113</v>
       </c>
       <c r="S5">
-        <v>0.005471970122561105</v>
+        <v>0.009859643896402592</v>
       </c>
       <c r="T5">
-        <v>0.005471970122561106</v>
+        <v>0.009859643896402592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N6">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O6">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P6">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q6">
-        <v>45546.27177439956</v>
+        <v>24616.86226560192</v>
       </c>
       <c r="R6">
-        <v>409916.4459695961</v>
+        <v>221551.7603904173</v>
       </c>
       <c r="S6">
-        <v>0.3895214902934157</v>
+        <v>0.227584625394945</v>
       </c>
       <c r="T6">
-        <v>0.3895214902934157</v>
+        <v>0.227584625394945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>14.482232</v>
       </c>
       <c r="O7">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P7">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q7">
         <v>7904.128720602995</v>
@@ -883,10 +883,10 @@
         <v>71137.15848542696</v>
       </c>
       <c r="S7">
-        <v>0.06759780501838573</v>
+        <v>0.07307422670457361</v>
       </c>
       <c r="T7">
-        <v>0.06759780501838575</v>
+        <v>0.07307422670457361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N8">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O8">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P8">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q8">
-        <v>6658.565071994661</v>
+        <v>10171.06605522043</v>
       </c>
       <c r="R8">
-        <v>59927.08564795195</v>
+        <v>91539.5944969839</v>
       </c>
       <c r="S8">
-        <v>0.05694547740166242</v>
+        <v>0.0940322220220207</v>
       </c>
       <c r="T8">
-        <v>0.05694547740166243</v>
+        <v>0.0940322220220207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N9">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O9">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P9">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q9">
-        <v>52497.19759909313</v>
+        <v>59752.94817979619</v>
       </c>
       <c r="R9">
-        <v>472474.7783918382</v>
+        <v>537776.5336181658</v>
       </c>
       <c r="S9">
-        <v>0.4489672995918063</v>
+        <v>0.5524202142831449</v>
       </c>
       <c r="T9">
-        <v>0.4489672995918064</v>
+        <v>0.5524202142831449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N10">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O10">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P10">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q10">
-        <v>706.4484917386612</v>
+        <v>562.1770386273112</v>
       </c>
       <c r="R10">
-        <v>6358.036425647951</v>
+        <v>5059.5933476458</v>
       </c>
       <c r="S10">
-        <v>0.006041699102850591</v>
+        <v>0.00519736631586941</v>
       </c>
       <c r="T10">
-        <v>0.006041699102850593</v>
+        <v>0.00519736631586941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.482232</v>
       </c>
       <c r="O11">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P11">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q11">
-        <v>122.5975166713156</v>
+        <v>180.5071511200178</v>
       </c>
       <c r="R11">
-        <v>1103.37765004184</v>
+        <v>1624.56436008016</v>
       </c>
       <c r="S11">
-        <v>0.001048480271593256</v>
+        <v>0.001668801325104765</v>
       </c>
       <c r="T11">
-        <v>0.001048480271593256</v>
+        <v>0.001668801325104765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N12">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O12">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P12">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q12">
-        <v>103.2781184715611</v>
+        <v>232.2773606527622</v>
       </c>
       <c r="R12">
-        <v>929.5030662440502</v>
+        <v>2090.49624587486</v>
       </c>
       <c r="S12">
-        <v>0.0008832566323102254</v>
+        <v>0.002147420558376872</v>
       </c>
       <c r="T12">
-        <v>0.0008832566323102255</v>
+        <v>0.002147420558376872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N13">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O13">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P13">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q13">
-        <v>814.2612912003756</v>
+        <v>1364.582337689236</v>
       </c>
       <c r="R13">
-        <v>7328.351620803381</v>
+        <v>12281.24103920312</v>
       </c>
       <c r="S13">
-        <v>0.006963737300116097</v>
+        <v>0.01261565981857556</v>
       </c>
       <c r="T13">
-        <v>0.006963737300116099</v>
+        <v>0.01261565981857556</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N14">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O14">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P14">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q14">
-        <v>486.8234123747812</v>
+        <v>373.11708894099</v>
       </c>
       <c r="R14">
-        <v>4381.410711373031</v>
+        <v>3358.05380046891</v>
       </c>
       <c r="S14">
-        <v>0.004163418293317614</v>
+        <v>0.003449493765651179</v>
       </c>
       <c r="T14">
-        <v>0.004163418293317614</v>
+        <v>0.003449493765651179</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>14.482232</v>
       </c>
       <c r="O15">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P15">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q15">
-        <v>84.48364192513957</v>
+        <v>119.802656692248</v>
       </c>
       <c r="R15">
-        <v>760.352777326256</v>
+        <v>1078.223910230232</v>
       </c>
       <c r="S15">
-        <v>0.0007225222356529418</v>
+        <v>0.001107583998742327</v>
       </c>
       <c r="T15">
-        <v>0.0007225222356529419</v>
+        <v>0.001107583998742326</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N16">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O16">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P16">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q16">
-        <v>71.17037780664113</v>
+        <v>154.162562109033</v>
       </c>
       <c r="R16">
-        <v>640.53340025977</v>
+        <v>1387.463058981297</v>
       </c>
       <c r="S16">
-        <v>0.0006086643439292513</v>
+        <v>0.001425243744266095</v>
       </c>
       <c r="T16">
-        <v>0.0006086643439292514</v>
+        <v>0.001425243744266095</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N17">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O17">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P17">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q17">
-        <v>561.1187014799436</v>
+        <v>905.6737548408361</v>
       </c>
       <c r="R17">
-        <v>5050.068313319493</v>
+        <v>8151.063793567525</v>
       </c>
       <c r="S17">
-        <v>0.004798807549267411</v>
+        <v>0.00837301764951176</v>
       </c>
       <c r="T17">
-        <v>0.004798807549267413</v>
+        <v>0.00837301764951176</v>
       </c>
     </row>
   </sheetData>
